--- a/docs/phase_ii/project.xlsx
+++ b/docs/phase_ii/project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Page_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
   <si>
     <t xml:space="preserve">1. Agile User Story Template</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t xml:space="preserve">Broadcast a file to all of the client machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign a scheduled task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The task gets executed at specified time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor health of clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if all clients are working correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Netdog status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find issues regarding working of Netdog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change how Netdog works</t>
   </si>
   <si>
     <t xml:space="preserve">Approval by Guide</t>
@@ -606,7 +630,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -644,6 +668,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,10 +1020,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.45" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -995,7 +1031,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
@@ -1408,10 +1444,18 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1436,10 +1480,18 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1464,12 +1516,18 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="10"/>
+      <c r="A15" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1493,13 +1551,47 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
+    <row r="16" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="141" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1514,7 +1606,7 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1526,7 +1618,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="0" width="8.71"/>
@@ -1534,110 +1626,110 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>32</v>
+      <c r="B5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="18" t="n">
+      <c r="B6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="21" t="n">
         <f aca="false">SUM(D6)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="19" t="n">
+      <c r="G6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="22" t="n">
         <v>43531</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -1645,29 +1737,29 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="18" t="n">
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="21" t="n">
         <f aca="false">SUM(D6+D7)</f>
         <v>4</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="19" t="n">
+      <c r="G7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="22" t="n">
         <v>43532</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1675,29 +1767,29 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="18" t="n">
+      <c r="B8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="21" t="n">
         <f aca="false">SUM(D6+D7+D8)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="19" t="n">
+      <c r="G8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="22" t="n">
         <v>43533</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -1705,29 +1797,29 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="18" t="n">
+      <c r="B9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="21" t="n">
         <f aca="false">SUM(D7+D8+D9+D6)</f>
         <v>12</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="19" t="n">
+      <c r="G9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="22" t="n">
         <v>43534</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -1735,29 +1827,29 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="20" t="n">
+      <c r="B10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="21" t="n">
         <f aca="false">SUM(D8+D9+D10+D7+ D6)</f>
         <v>16</v>
       </c>
-      <c r="F10" s="20" t="n">
+      <c r="F10" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="19" t="n">
+      <c r="G10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="22" t="n">
         <v>43535</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -1765,29 +1857,29 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="20" t="n">
+      <c r="B11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="21" t="n">
         <f aca="false">SUM(D9+D10+D11+D8 + D7+ D6)</f>
         <v>23</v>
       </c>
-      <c r="F11" s="20" t="n">
+      <c r="F11" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="19" t="n">
+      <c r="G11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="22" t="n">
         <v>43536</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1795,29 +1887,29 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="A12" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="20" t="n">
+      <c r="B12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="21" t="n">
         <f aca="false">SUM(D10+D11+D12+D9 + D8+ D7+D6)</f>
         <v>31</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="19" t="n">
+      <c r="G12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="22" t="n">
         <v>43537</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -1825,46 +1917,46 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2880,752 +2972,752 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="26"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="26"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="25"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
+      <c r="B7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38" t="n">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="41" t="n">
         <f aca="false">E8-D8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
+      <c r="G8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="n">
+      <c r="A9" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42" t="n">
+      <c r="B9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="45" t="n">
         <f aca="false">E9-D9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
+      <c r="G9" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="n">
+      <c r="A10" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42" t="n">
+      <c r="B10" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="45" t="n">
         <f aca="false">E10-D10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
+      <c r="G10" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
+      <c r="A11" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42" t="n">
+      <c r="B11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="45" t="n">
         <f aca="false">E11-D11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
+      <c r="G11" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="46" t="n">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="49" t="n">
         <f aca="false">E12-D12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
+      <c r="G12" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="n">
+      <c r="A13" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50" t="n">
+      <c r="B13" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53" t="n">
         <f aca="false">E13-D13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
+      <c r="G13" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="n">
+      <c r="A14" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50" t="n">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53" t="n">
         <f aca="false">E14-D14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
+      <c r="G14" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="n">
+      <c r="A15" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50" t="n">
+      <c r="B15" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53" t="n">
         <f aca="false">E15-D15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
+      <c r="G15" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3662,61 +3754,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="A1" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57"/>
+      <c r="A2" s="60"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="A3" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59"/>
+      <c r="A4" s="62"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
-        <v>64</v>
+      <c r="A5" s="63" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>65</v>
+      <c r="A6" s="63" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60"/>
+      <c r="A8" s="63"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="A9" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3752,742 +3844,742 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="71"/>
+      <c r="B7" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="75" t="n">
+        <v>42435</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="71"/>
+      <c r="B8" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="75" t="n">
+        <v>42441</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="71"/>
+      <c r="B9" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="75" t="n">
+        <v>42449</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="71"/>
+      <c r="B10" s="74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="75" t="n">
+        <v>42461</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="71"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="71"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="71"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="71"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="71"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="71"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="71"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="71"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="71"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="71"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="71"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68"/>
-      <c r="B7" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="72" t="n">
-        <v>42435</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="71" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="72" t="n">
-        <v>42441</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="71" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="72" t="n">
-        <v>42449</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="71" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="72" t="n">
-        <v>42461</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="68"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/phase_ii/project.xlsx
+++ b/docs/phase_ii/project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Page_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t xml:space="preserve">1. Agile User Story Template</t>
   </si>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">*To be planned  before sprint starts </t>
   </si>
   <si>
-    <t xml:space="preserve">Date: </t>
+    <t xml:space="preserve">Date: 07/03/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Priority &lt;High/Medium/low&gt;</t>
@@ -215,6 +215,9 @@
     <t xml:space="preserve">Medium</t>
   </si>
   <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
     <t xml:space="preserve">Planned</t>
   </si>
   <si>
@@ -251,49 +254,52 @@
     <t xml:space="preserve">Sprint 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex B.</t>
+    <t xml:space="preserve">Aswin Babu K</t>
   </si>
   <si>
     <t xml:space="preserve">Complete</t>
   </si>
   <si>
-    <t xml:space="preserve">Task 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overdue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shari W.</t>
+    <t xml:space="preserve">Switch to flask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate process for web server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network interface selection page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup cookies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create password creation page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time run screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let nodes to update IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update client side last_known_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix update nodes overwriting dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create beacon system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create beacon DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beacon DB cleanup thread</t>
   </si>
   <si>
     <t xml:space="preserve">Approval by Scrum Master</t>
@@ -504,7 +510,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,7 +526,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC2D69B"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
@@ -537,20 +543,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF76923C"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFB8CCE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE4"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -630,7 +624,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -819,54 +813,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -919,11 +865,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,10 +911,10 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF76923C"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FFC2D69B"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -993,7 +939,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFC2D69B"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1022,7 +968,7 @@
   </sheetPr>
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1591,7 +1537,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="141" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1607,7 +1553,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1618,7 +1564,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="0" width="8.71"/>
@@ -1760,7 +1706,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="22" t="n">
-        <v>43532</v>
+        <v>43531</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>12</v>
@@ -1790,7 +1736,7 @@
         <v>42</v>
       </c>
       <c r="H8" s="22" t="n">
-        <v>43533</v>
+        <v>43531</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>14</v>
@@ -1817,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="22" t="n">
-        <v>43534</v>
+        <v>43565</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="n">
         <v>5</v>
       </c>
@@ -1847,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="22" t="n">
-        <v>43535</v>
+        <v>43566</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>18</v>
@@ -1877,16 +1823,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="22" t="n">
-        <v>43536</v>
+        <v>43567</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="n">
         <v>7</v>
       </c>
@@ -1907,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="22" t="n">
-        <v>43537</v>
+        <v>43568</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>20</v>
@@ -1924,7 +1870,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -1948,7 +1894,7 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="15"/>
@@ -2958,15 +2904,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="14.43"/>
   </cols>
@@ -3003,7 +2951,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30"/>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3098,7 +3046,7 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31"/>
       <c r="B5" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -3160,22 +3108,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -3201,19 +3149,23 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
       <c r="B8" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+        <v>55</v>
+      </c>
+      <c r="D8" s="42" t="n">
+        <v>43503</v>
+      </c>
+      <c r="E8" s="42" t="n">
+        <v>43531</v>
+      </c>
       <c r="F8" s="41" t="n">
         <f aca="false">E8-D8</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
@@ -3241,19 +3193,23 @@
         <v>1</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+        <v>55</v>
+      </c>
+      <c r="D9" s="46" t="n">
+        <v>43503</v>
+      </c>
+      <c r="E9" s="46" t="n">
+        <v>43531</v>
+      </c>
       <c r="F9" s="45" t="n">
         <f aca="false">E9-D9</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -3284,16 +3240,20 @@
         <v>58</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+        <v>55</v>
+      </c>
+      <c r="D10" s="46" t="n">
+        <v>43504</v>
+      </c>
+      <c r="E10" s="46" t="n">
+        <v>43532</v>
+      </c>
       <c r="F10" s="45" t="n">
         <f aca="false">E10-D10</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -3318,22 +3278,26 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+        <v>55</v>
+      </c>
+      <c r="D11" s="46" t="n">
+        <v>43505</v>
+      </c>
+      <c r="E11" s="46" t="n">
+        <v>43533</v>
+      </c>
       <c r="F11" s="45" t="n">
         <f aca="false">E11-D11</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -3357,21 +3321,27 @@
       <c r="AA11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="49" t="n">
+      <c r="A12" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="46" t="n">
+        <v>43506</v>
+      </c>
+      <c r="E12" s="46" t="n">
+        <v>43534</v>
+      </c>
+      <c r="F12" s="45" t="n">
         <f aca="false">E12-D12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -3395,23 +3365,27 @@
       <c r="AA12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53" t="n">
+      <c r="A13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="46" t="n">
+        <v>43507</v>
+      </c>
+      <c r="E13" s="46" t="n">
+        <v>43535</v>
+      </c>
+      <c r="F13" s="45" t="n">
         <f aca="false">E13-D13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -3435,23 +3409,27 @@
       <c r="AA13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53" t="n">
+      <c r="A14" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="46" t="n">
+        <v>43508</v>
+      </c>
+      <c r="E14" s="46" t="n">
+        <v>43536</v>
+      </c>
+      <c r="F14" s="45" t="n">
         <f aca="false">E14-D14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -3475,23 +3453,27 @@
       <c r="AA14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="53" t="n">
+      <c r="A15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="46" t="n">
+        <v>43509</v>
+      </c>
+      <c r="E15" s="46" t="n">
+        <v>43537</v>
+      </c>
+      <c r="F15" s="45" t="n">
         <f aca="false">E15-D15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -3515,13 +3497,28 @@
       <c r="AA15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="A16" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="46" t="n">
+        <v>43510</v>
+      </c>
+      <c r="E16" s="46" t="n">
+        <v>43538</v>
+      </c>
+      <c r="F16" s="45" t="n">
+        <f aca="false">E16-D16</f>
+        <v>28</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
@@ -3544,13 +3541,28 @@
       <c r="AA16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
+      <c r="A17" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="46" t="n">
+        <v>43511</v>
+      </c>
+      <c r="E17" s="46" t="n">
+        <v>43539</v>
+      </c>
+      <c r="F17" s="45" t="n">
+        <f aca="false">E17-D17</f>
+        <v>28</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
@@ -3573,13 +3585,28 @@
       <c r="AA17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
+      <c r="A18" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="46" t="n">
+        <v>43512</v>
+      </c>
+      <c r="E18" s="46" t="n">
+        <v>43540</v>
+      </c>
+      <c r="F18" s="45" t="n">
+        <f aca="false">E18-D18</f>
+        <v>28</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -3602,13 +3629,28 @@
       <c r="AA18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
+      <c r="A19" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="46" t="n">
+        <v>43513</v>
+      </c>
+      <c r="E19" s="46" t="n">
+        <v>43541</v>
+      </c>
+      <c r="F19" s="45" t="n">
+        <f aca="false">E19-D19</f>
+        <v>28</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
@@ -3631,13 +3673,28 @@
       <c r="AA19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="46" t="n">
+        <v>43514</v>
+      </c>
+      <c r="E20" s="46" t="n">
+        <v>43542</v>
+      </c>
+      <c r="F20" s="45" t="n">
+        <f aca="false">E20-D20</f>
+        <v>28</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
@@ -3660,13 +3717,28 @@
       <c r="AA20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="A21" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="46" t="n">
+        <v>43515</v>
+      </c>
+      <c r="E21" s="46" t="n">
+        <v>43543</v>
+      </c>
+      <c r="F21" s="45" t="n">
+        <f aca="false">E21-D21</f>
+        <v>28</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
@@ -3689,14 +3761,27 @@
       <c r="AA21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27" t="s">
-        <v>69</v>
+      <c r="A22" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="46" t="n">
+        <v>43516</v>
+      </c>
+      <c r="E22" s="46" t="n">
+        <v>43544</v>
+      </c>
+      <c r="F22" s="45" t="n">
+        <f aca="false">E22-D22</f>
+        <v>28</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -3719,6 +3804,46 @@
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
     </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
@@ -3754,61 +3879,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="A1" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60"/>
+      <c r="A2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62"/>
+      <c r="A4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>72</v>
+      <c r="A5" s="51" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>73</v>
+      <c r="A6" s="51" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="A7" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63"/>
+      <c r="A8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
+      <c r="A9" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3845,12 +3970,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -3873,14 +3998,14 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25"/>
-      <c r="B2" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="B2" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -3903,12 +4028,12 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -3934,13 +4059,13 @@
       <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
+        <v>79</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -3963,12 +4088,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3990,24 +4115,24 @@
       <c r="Z5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="72" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="D6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="E6" s="60" t="s">
         <v>83</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>85</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4030,24 +4155,24 @@
       <c r="Z6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71"/>
-      <c r="B7" s="74" t="n">
+      <c r="A7" s="59"/>
+      <c r="B7" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="75" t="n">
+      <c r="C7" s="63" t="n">
         <v>42435</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -4070,24 +4195,24 @@
       <c r="Z7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71"/>
-      <c r="B8" s="74" t="n">
+      <c r="A8" s="59"/>
+      <c r="B8" s="62" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="75" t="n">
+      <c r="C8" s="63" t="n">
         <v>42441</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -4110,24 +4235,24 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71"/>
-      <c r="B9" s="74" t="n">
+      <c r="A9" s="59"/>
+      <c r="B9" s="62" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="75" t="n">
+      <c r="C9" s="63" t="n">
         <v>42449</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -4150,23 +4275,23 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71"/>
-      <c r="B10" s="74" t="n">
+      <c r="A10" s="59"/>
+      <c r="B10" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="75" t="n">
+      <c r="C10" s="63" t="n">
         <v>42461</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="76"/>
+        <v>98</v>
+      </c>
+      <c r="G10" s="64"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -4188,13 +4313,13 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="76"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -4216,13 +4341,13 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="76"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -4244,13 +4369,13 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="76"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -4272,13 +4397,13 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="76"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -4300,13 +4425,13 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="76"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -4328,13 +4453,13 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="76"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -4356,13 +4481,13 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="76"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -4384,13 +4509,13 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="71"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="76"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -4412,13 +4537,13 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="71"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="76"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -4440,13 +4565,13 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="71"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="76"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -4468,13 +4593,13 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="76"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -4497,12 +4622,12 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -4559,7 +4684,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>

--- a/docs/phase_ii/project.xlsx
+++ b/docs/phase_ii/project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t xml:space="preserve">1. Agile User Story Template</t>
   </si>
@@ -146,16 +146,22 @@
     <t xml:space="preserve">Command executes only on specific machines</t>
   </si>
   <si>
+    <t xml:space="preserve">View Docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn more about Netdog</t>
+  </si>
+  <si>
     <t xml:space="preserve">Broadcast file</t>
   </si>
   <si>
     <t xml:space="preserve">Broadcast a file to all of the client machines</t>
   </si>
   <si>
-    <t xml:space="preserve">Assign a scheduled task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The task gets executed at specified time</t>
+    <t xml:space="preserve">Shutdown, Suspend shortcuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy power management of clients</t>
   </si>
   <si>
     <t xml:space="preserve">Monitor health of clients</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">Find issues regarding working of Netdog</t>
   </si>
   <si>
-    <t xml:space="preserve">Access Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change how Netdog works</t>
+    <t xml:space="preserve">Install Netdog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup Netdog without hassle</t>
   </si>
   <si>
     <t xml:space="preserve">Approval by Guide</t>
@@ -218,7 +224,7 @@
     <t xml:space="preserve">Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Planned</t>
+    <t xml:space="preserve">High</t>
   </si>
   <si>
     <t xml:space="preserve">* Story points out of 10 may be assigned based on priority</t>
@@ -230,7 +236,10 @@
     <t xml:space="preserve">3. Agile Project Plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall Progress: 20%</t>
+    <t xml:space="preserve">Date: 16/05/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Progress: 100%</t>
   </si>
   <si>
     <t xml:space="preserve">Task Name</t>
@@ -302,101 +311,153 @@
     <t xml:space="preserve">Beacon DB cleanup thread</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Execute command UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create function to get active clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement target clients UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement checkbox in target clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create documentation in Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link documentation to web UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement broadcast function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement broadcast UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement shutdown shortcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Suspend shortcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure conky to get required stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send output of conky through beacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement statistics UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create deployer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Database &amp; UI Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*To be planned before sprint starts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint &lt;#&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Dates: &lt;Month&gt; &lt;DD&gt; - &lt;Month&gt; &lt;DD&gt;, &lt;YYYY&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Include Database design and User interface design &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Testing and Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint#: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass? &lt;Yes/No&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should get to home screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User directed to different page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signing up for webinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get confirmation email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation email received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click magnifying glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole page gets bigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text changes sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click blog post hero image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to blog post</t>
+  </si>
+  <si>
     <t xml:space="preserve">Approval by Scrum Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Database &amp; UI Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*To be planned before sprint starts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint &lt;#&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint Dates: &lt;Month&gt; &lt;DD&gt; - &lt;Month&gt; &lt;DD&gt;, &lt;YYYY&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Include Database design and User interface design &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Testing and Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint#: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass? &lt;Yes/No&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should get to home screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User directed to different page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signing up for webinar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get confirmation email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmation email received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click magnifying glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whole page gets bigger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text changes sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click blog post hero image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to blog post</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="M/D"/>
-    <numFmt numFmtId="167" formatCode="DD/MMM"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="167" formatCode="M/D"/>
+    <numFmt numFmtId="168" formatCode="DD/MMM"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -453,6 +514,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -624,7 +691,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -721,6 +788,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -729,19 +812,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -757,27 +840,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,7 +876,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -809,16 +892,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -829,11 +912,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,6 +928,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -849,7 +940,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -877,7 +968,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -968,8 +1059,8 @@
   </sheetPr>
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.45" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1325,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1361,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1397,10 +1488,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1433,10 +1524,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1469,10 +1560,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1502,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1527,7 +1618,7 @@
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" s="12"/>
     </row>
@@ -1553,7 +1644,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1573,7 +1664,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1588,7 +1679,7 @@
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -1608,7 +1699,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -1628,28 +1719,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="21" t="n">
         <v>6</v>
@@ -1673,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" s="22" t="n">
         <v>43531</v>
@@ -1687,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="21" t="n">
         <v>6</v>
@@ -1703,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="22" t="n">
         <v>43531</v>
@@ -1717,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="21" t="n">
         <v>7</v>
@@ -1733,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="22" t="n">
         <v>43531</v>
@@ -1747,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="21" t="n">
         <v>4</v>
@@ -1763,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="22" t="n">
         <v>43565</v>
@@ -1772,12 +1863,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>5</v>
@@ -1793,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="22" t="n">
         <v>43566</v>
@@ -1807,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="23" t="n">
         <v>6</v>
@@ -1823,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="22" t="n">
         <v>43567</v>
@@ -1837,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>8</v>
@@ -1853,28 +1944,145 @@
         <v>1</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="22" t="n">
         <v>43568</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <f aca="false">SUM(D11+D12+D13+D10 + D9+ D8+D7)</f>
+        <v>36</v>
+      </c>
+      <c r="F13" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>43576</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <f aca="false">SUM(D12+D13+D14+D11 + D10+ D9+D8)</f>
+        <v>41</v>
+      </c>
+      <c r="F14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <v>43576</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <f aca="false">SUM(D13+D14+D15+D12 + D11+ D10+D9)</f>
+        <v>43</v>
+      </c>
+      <c r="F15" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>43601</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <f aca="false">SUM(D14+D15+D16+D13 + D12+ D11+D10)</f>
+        <v>48</v>
+      </c>
+      <c r="F16" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="25" t="n">
+        <v>43601</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1893,14 +2101,14 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="25"/>
+      <c r="D20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="29"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="24" t="s">
-        <v>29</v>
+      <c r="H20" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="I20" s="15"/>
     </row>
@@ -2904,946 +3112,1344 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="29"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="29"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="29"/>
+        <v>33</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
+      <c r="E7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="42" t="n">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="46" t="n">
         <v>43503</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="46" t="n">
         <v>43531</v>
       </c>
-      <c r="F8" s="41" t="n">
+      <c r="F8" s="45" t="n">
         <f aca="false">E8-D8</f>
         <v>28</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
+      <c r="G8" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="n">
+      <c r="A9" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="46" t="n">
+      <c r="B9" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="50" t="n">
         <v>43503</v>
       </c>
-      <c r="E9" s="46" t="n">
+      <c r="E9" s="50" t="n">
         <v>43531</v>
       </c>
-      <c r="F9" s="45" t="n">
+      <c r="F9" s="49" t="n">
         <f aca="false">E9-D9</f>
         <v>28</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
+      <c r="G9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="n">
+      <c r="A10" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="46" t="n">
+      <c r="D10" s="50" t="n">
         <v>43504</v>
       </c>
-      <c r="E10" s="46" t="n">
+      <c r="E10" s="50" t="n">
         <v>43532</v>
       </c>
-      <c r="F10" s="45" t="n">
+      <c r="F10" s="49" t="n">
         <f aca="false">E10-D10</f>
         <v>28</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
+      <c r="G10" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="n">
+      <c r="A11" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="46" t="n">
+      <c r="B11" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="50" t="n">
         <v>43505</v>
       </c>
-      <c r="E11" s="46" t="n">
+      <c r="E11" s="50" t="n">
         <v>43533</v>
       </c>
-      <c r="F11" s="45" t="n">
+      <c r="F11" s="49" t="n">
         <f aca="false">E11-D11</f>
         <v>28</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
+      <c r="G11" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43" t="n">
+      <c r="A12" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="46" t="n">
+      <c r="B12" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="50" t="n">
         <v>43506</v>
       </c>
-      <c r="E12" s="46" t="n">
+      <c r="E12" s="50" t="n">
         <v>43534</v>
       </c>
-      <c r="F12" s="45" t="n">
+      <c r="F12" s="49" t="n">
         <f aca="false">E12-D12</f>
         <v>28</v>
       </c>
-      <c r="G12" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
+      <c r="G12" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="43" t="n">
+      <c r="A13" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="46" t="n">
+      <c r="B13" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="50" t="n">
         <v>43507</v>
       </c>
-      <c r="E13" s="46" t="n">
+      <c r="E13" s="50" t="n">
         <v>43535</v>
       </c>
-      <c r="F13" s="45" t="n">
+      <c r="F13" s="49" t="n">
         <f aca="false">E13-D13</f>
         <v>28</v>
       </c>
-      <c r="G13" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
+      <c r="G13" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="43" t="n">
+      <c r="A14" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="46" t="n">
+      <c r="B14" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="50" t="n">
         <v>43508</v>
       </c>
-      <c r="E14" s="46" t="n">
+      <c r="E14" s="50" t="n">
         <v>43536</v>
       </c>
-      <c r="F14" s="45" t="n">
+      <c r="F14" s="49" t="n">
         <f aca="false">E14-D14</f>
         <v>28</v>
       </c>
-      <c r="G14" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
+      <c r="G14" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43" t="n">
+      <c r="A15" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="46" t="n">
+      <c r="B15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="50" t="n">
         <v>43509</v>
       </c>
-      <c r="E15" s="46" t="n">
+      <c r="E15" s="50" t="n">
         <v>43537</v>
       </c>
-      <c r="F15" s="45" t="n">
+      <c r="F15" s="49" t="n">
         <f aca="false">E15-D15</f>
         <v>28</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
+      <c r="G15" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="43" t="n">
+      <c r="A16" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="46" t="n">
+      <c r="B16" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="50" t="n">
         <v>43510</v>
       </c>
-      <c r="E16" s="46" t="n">
+      <c r="E16" s="50" t="n">
         <v>43538</v>
       </c>
-      <c r="F16" s="45" t="n">
+      <c r="F16" s="49" t="n">
         <f aca="false">E16-D16</f>
         <v>28</v>
       </c>
-      <c r="G16" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
+      <c r="G16" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="43" t="n">
+      <c r="A17" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="46" t="n">
+      <c r="B17" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="50" t="n">
         <v>43511</v>
       </c>
-      <c r="E17" s="46" t="n">
+      <c r="E17" s="50" t="n">
         <v>43539</v>
       </c>
-      <c r="F17" s="45" t="n">
+      <c r="F17" s="49" t="n">
         <f aca="false">E17-D17</f>
         <v>28</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
+      <c r="G17" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="43" t="n">
+      <c r="A18" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="46" t="n">
+      <c r="B18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="50" t="n">
         <v>43512</v>
       </c>
-      <c r="E18" s="46" t="n">
+      <c r="E18" s="50" t="n">
         <v>43540</v>
       </c>
-      <c r="F18" s="45" t="n">
+      <c r="F18" s="49" t="n">
         <f aca="false">E18-D18</f>
         <v>28</v>
       </c>
-      <c r="G18" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
+      <c r="G18" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="n">
+      <c r="A19" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="46" t="n">
+      <c r="B19" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="50" t="n">
         <v>43513</v>
       </c>
-      <c r="E19" s="46" t="n">
+      <c r="E19" s="50" t="n">
         <v>43541</v>
       </c>
-      <c r="F19" s="45" t="n">
+      <c r="F19" s="49" t="n">
         <f aca="false">E19-D19</f>
         <v>28</v>
       </c>
-      <c r="G19" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
+      <c r="G19" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43" t="n">
+      <c r="A20" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="46" t="n">
+      <c r="B20" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="50" t="n">
         <v>43514</v>
       </c>
-      <c r="E20" s="46" t="n">
+      <c r="E20" s="50" t="n">
         <v>43542</v>
       </c>
-      <c r="F20" s="45" t="n">
+      <c r="F20" s="49" t="n">
         <f aca="false">E20-D20</f>
         <v>28</v>
       </c>
-      <c r="G20" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
+      <c r="G20" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="n">
+      <c r="A21" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="46" t="n">
+      <c r="B21" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="50" t="n">
         <v>43515</v>
       </c>
-      <c r="E21" s="46" t="n">
+      <c r="E21" s="50" t="n">
         <v>43543</v>
       </c>
-      <c r="F21" s="45" t="n">
+      <c r="F21" s="49" t="n">
         <f aca="false">E21-D21</f>
         <v>28</v>
       </c>
-      <c r="G21" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
+      <c r="G21" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="n">
+      <c r="A22" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="46" t="n">
+      <c r="B22" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="50" t="n">
         <v>43516</v>
       </c>
-      <c r="E22" s="46" t="n">
+      <c r="E22" s="50" t="n">
         <v>43544</v>
       </c>
-      <c r="F22" s="45" t="n">
+      <c r="F22" s="49" t="n">
         <f aca="false">E22-D22</f>
         <v>28</v>
       </c>
-      <c r="G22" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G22" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+    </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="46" t="n">
+        <v>43503</v>
+      </c>
+      <c r="E24" s="46" t="n">
+        <v>43562</v>
+      </c>
+      <c r="F24" s="45" t="n">
+        <f aca="false">E24-D24</f>
+        <v>59</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="50" t="n">
+        <v>43531</v>
+      </c>
+      <c r="E25" s="50" t="n">
+        <v>43563</v>
+      </c>
+      <c r="F25" s="49" t="n">
+        <f aca="false">E25-D25</f>
+        <v>32</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="50" t="n">
+        <v>43532</v>
+      </c>
+      <c r="E26" s="50" t="n">
+        <v>43563</v>
+      </c>
+      <c r="F26" s="49" t="n">
+        <f aca="false">E26-D26</f>
+        <v>31</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="50" t="n">
+        <v>43533</v>
+      </c>
+      <c r="E27" s="50" t="n">
+        <v>43564</v>
+      </c>
+      <c r="F27" s="49" t="n">
+        <f aca="false">E27-D27</f>
+        <v>31</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="50" t="n">
+        <v>43534</v>
+      </c>
+      <c r="E28" s="50" t="n">
+        <v>43565</v>
+      </c>
+      <c r="F28" s="49" t="n">
+        <f aca="false">E28-D28</f>
+        <v>31</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="50" t="n">
+        <v>43535</v>
+      </c>
+      <c r="E29" s="50" t="n">
+        <v>43566</v>
+      </c>
+      <c r="F29" s="49" t="n">
+        <f aca="false">E29-D29</f>
+        <v>31</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="50" t="n">
+        <v>43536</v>
+      </c>
+      <c r="E30" s="50" t="n">
+        <v>43567</v>
+      </c>
+      <c r="F30" s="49" t="n">
+        <f aca="false">E30-D30</f>
+        <v>31</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="50" t="n">
+        <v>43537</v>
+      </c>
+      <c r="E31" s="50" t="n">
+        <v>43568</v>
+      </c>
+      <c r="F31" s="49" t="n">
+        <f aca="false">E31-D31</f>
+        <v>31</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="A32" s="47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="50" t="n">
+        <v>43538</v>
+      </c>
+      <c r="E32" s="50" t="n">
+        <v>43569</v>
+      </c>
+      <c r="F32" s="49" t="n">
+        <f aca="false">E32-D32</f>
+        <v>31</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="A33" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="50" t="n">
+        <v>43539</v>
+      </c>
+      <c r="E33" s="50" t="n">
+        <v>43570</v>
+      </c>
+      <c r="F33" s="49" t="n">
+        <f aca="false">E33-D33</f>
+        <v>31</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A34" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="50" t="n">
+        <v>43540</v>
+      </c>
+      <c r="E34" s="50" t="n">
+        <v>43571</v>
+      </c>
+      <c r="F34" s="49" t="n">
+        <f aca="false">E34-D34</f>
+        <v>31</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="46" t="n">
+        <v>43562</v>
+      </c>
+      <c r="E36" s="46" t="n">
+        <v>43592</v>
+      </c>
+      <c r="F36" s="45" t="n">
+        <f aca="false">E36-D36</f>
+        <v>30</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="50" t="n">
+        <v>43562</v>
+      </c>
+      <c r="E37" s="50" t="n">
+        <v>43592</v>
+      </c>
+      <c r="F37" s="49" t="n">
+        <f aca="false">E37-D37</f>
+        <v>30</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="50" t="n">
+        <v>43563</v>
+      </c>
+      <c r="E38" s="50" t="n">
+        <v>43593</v>
+      </c>
+      <c r="F38" s="49" t="n">
+        <f aca="false">E38-D38</f>
+        <v>30</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="50" t="n">
+        <v>43564</v>
+      </c>
+      <c r="E39" s="50" t="n">
+        <v>43594</v>
+      </c>
+      <c r="F39" s="49" t="n">
+        <f aca="false">E39-D39</f>
+        <v>30</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="47" t="n">
+        <v>10</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="50" t="n">
+        <v>43565</v>
+      </c>
+      <c r="E40" s="50" t="n">
+        <v>43595</v>
+      </c>
+      <c r="F40" s="49" t="n">
+        <f aca="false">E40-D40</f>
+        <v>30</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="47" t="n">
+        <v>11</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="50" t="n">
+        <v>43566</v>
+      </c>
+      <c r="E41" s="50" t="n">
+        <v>43596</v>
+      </c>
+      <c r="F41" s="49" t="n">
+        <f aca="false">E41-D41</f>
+        <v>30</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="47" t="n">
+        <v>11</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="50" t="n">
+        <v>43566</v>
+      </c>
+      <c r="E42" s="50" t="n">
+        <v>43596</v>
+      </c>
+      <c r="F42" s="49" t="n">
+        <f aca="false">E42-D42</f>
+        <v>30</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
@@ -3879,61 +4485,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="A1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48"/>
+      <c r="A2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="A3" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50"/>
+      <c r="A4" s="56"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
-        <v>74</v>
+      <c r="A5" s="57" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
-        <v>75</v>
+      <c r="A6" s="57" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51"/>
+      <c r="A8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="A9" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3969,13 +4575,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -3997,15 +4603,15 @@
       <c r="Z1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -4027,13 +4633,13 @@
       <c r="Z2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -4055,17 +4661,17 @@
       <c r="Z3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -4087,13 +4693,13 @@
       <c r="Z4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -4115,24 +4721,24 @@
       <c r="Z5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>85</v>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>104</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4155,24 +4761,24 @@
       <c r="Z6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59"/>
-      <c r="B7" s="62" t="n">
+      <c r="A7" s="65"/>
+      <c r="B7" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="63" t="n">
+      <c r="C7" s="69" t="n">
         <v>42435</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -4195,24 +4801,24 @@
       <c r="Z7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59"/>
-      <c r="B8" s="62" t="n">
+      <c r="A8" s="65"/>
+      <c r="B8" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="63" t="n">
+      <c r="C8" s="69" t="n">
         <v>42441</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -4235,24 +4841,24 @@
       <c r="Z8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59"/>
-      <c r="B9" s="62" t="n">
+      <c r="A9" s="65"/>
+      <c r="B9" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="63" t="n">
+      <c r="C9" s="69" t="n">
         <v>42449</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -4275,23 +4881,23 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59"/>
-      <c r="B10" s="62" t="n">
+      <c r="A10" s="65"/>
+      <c r="B10" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="63" t="n">
+      <c r="C10" s="69" t="n">
         <v>42461</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="64"/>
+        <v>117</v>
+      </c>
+      <c r="G10" s="70"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -4313,13 +4919,13 @@
       <c r="Z10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -4341,13 +4947,13 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="64"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -4369,13 +4975,13 @@
       <c r="Z12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="64"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -4397,13 +5003,13 @@
       <c r="Z13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="64"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -4425,13 +5031,13 @@
       <c r="Z14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="64"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -4453,13 +5059,13 @@
       <c r="Z15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="64"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -4481,13 +5087,13 @@
       <c r="Z16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="64"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -4509,13 +5115,13 @@
       <c r="Z17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="59"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="64"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -4537,13 +5143,13 @@
       <c r="Z18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="59"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="70"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -4565,13 +5171,13 @@
       <c r="Z19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="59"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="64"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="70"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -4593,13 +5199,13 @@
       <c r="Z20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="59"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="64"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -4621,13 +5227,13 @@
       <c r="Z21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -4683,8 +5289,8 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="25" t="s">
-        <v>71</v>
+      <c r="G24" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>

--- a/docs/phase_ii/project.xlsx
+++ b/docs/phase_ii/project.xlsx
@@ -3114,8 +3114,8 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3410,11 +3410,11 @@
         <v>43503</v>
       </c>
       <c r="E9" s="50" t="n">
-        <v>43531</v>
+        <v>43505</v>
       </c>
       <c r="F9" s="49" t="n">
         <f aca="false">E9-D9</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G9" s="49" t="s">
         <v>59</v>
@@ -3451,14 +3451,14 @@
         <v>58</v>
       </c>
       <c r="D10" s="50" t="n">
-        <v>43504</v>
+        <v>43505</v>
       </c>
       <c r="E10" s="50" t="n">
-        <v>43532</v>
+        <v>43507</v>
       </c>
       <c r="F10" s="49" t="n">
         <f aca="false">E10-D10</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>59</v>
@@ -3495,14 +3495,14 @@
         <v>58</v>
       </c>
       <c r="D11" s="50" t="n">
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="E11" s="50" t="n">
-        <v>43533</v>
+        <v>43509</v>
       </c>
       <c r="F11" s="49" t="n">
         <f aca="false">E11-D11</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G11" s="49" t="s">
         <v>59</v>
@@ -3539,14 +3539,14 @@
         <v>58</v>
       </c>
       <c r="D12" s="50" t="n">
-        <v>43506</v>
+        <v>43509</v>
       </c>
       <c r="E12" s="50" t="n">
-        <v>43534</v>
+        <v>43511</v>
       </c>
       <c r="F12" s="49" t="n">
         <f aca="false">E12-D12</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G12" s="49" t="s">
         <v>59</v>
@@ -3583,14 +3583,14 @@
         <v>58</v>
       </c>
       <c r="D13" s="50" t="n">
-        <v>43507</v>
+        <v>43511</v>
       </c>
       <c r="E13" s="50" t="n">
-        <v>43535</v>
+        <v>43513</v>
       </c>
       <c r="F13" s="49" t="n">
         <f aca="false">E13-D13</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>59</v>
@@ -3627,14 +3627,14 @@
         <v>58</v>
       </c>
       <c r="D14" s="50" t="n">
-        <v>43508</v>
+        <v>43513</v>
       </c>
       <c r="E14" s="50" t="n">
-        <v>43536</v>
+        <v>43515</v>
       </c>
       <c r="F14" s="49" t="n">
         <f aca="false">E14-D14</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>59</v>
@@ -3671,14 +3671,14 @@
         <v>58</v>
       </c>
       <c r="D15" s="50" t="n">
-        <v>43509</v>
+        <v>43515</v>
       </c>
       <c r="E15" s="50" t="n">
-        <v>43537</v>
+        <v>43517</v>
       </c>
       <c r="F15" s="49" t="n">
         <f aca="false">E15-D15</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G15" s="49" t="s">
         <v>59</v>
@@ -3715,14 +3715,14 @@
         <v>58</v>
       </c>
       <c r="D16" s="50" t="n">
-        <v>43510</v>
+        <v>43517</v>
       </c>
       <c r="E16" s="50" t="n">
-        <v>43538</v>
+        <v>43519</v>
       </c>
       <c r="F16" s="49" t="n">
         <f aca="false">E16-D16</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G16" s="49" t="s">
         <v>59</v>
@@ -3759,14 +3759,14 @@
         <v>58</v>
       </c>
       <c r="D17" s="50" t="n">
-        <v>43511</v>
+        <v>43519</v>
       </c>
       <c r="E17" s="50" t="n">
-        <v>43539</v>
+        <v>43521</v>
       </c>
       <c r="F17" s="49" t="n">
         <f aca="false">E17-D17</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G17" s="49" t="s">
         <v>59</v>
@@ -3803,14 +3803,14 @@
         <v>58</v>
       </c>
       <c r="D18" s="50" t="n">
-        <v>43512</v>
+        <v>43521</v>
       </c>
       <c r="E18" s="50" t="n">
-        <v>43540</v>
+        <v>43523</v>
       </c>
       <c r="F18" s="49" t="n">
         <f aca="false">E18-D18</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>59</v>
@@ -3847,14 +3847,14 @@
         <v>58</v>
       </c>
       <c r="D19" s="50" t="n">
-        <v>43513</v>
+        <v>43523</v>
       </c>
       <c r="E19" s="50" t="n">
-        <v>43541</v>
+        <v>43525</v>
       </c>
       <c r="F19" s="49" t="n">
         <f aca="false">E19-D19</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>59</v>
@@ -3891,14 +3891,14 @@
         <v>58</v>
       </c>
       <c r="D20" s="50" t="n">
-        <v>43514</v>
+        <v>43525</v>
       </c>
       <c r="E20" s="50" t="n">
-        <v>43542</v>
+        <v>43527</v>
       </c>
       <c r="F20" s="49" t="n">
         <f aca="false">E20-D20</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>59</v>
@@ -3935,14 +3935,14 @@
         <v>58</v>
       </c>
       <c r="D21" s="50" t="n">
-        <v>43515</v>
+        <v>43527</v>
       </c>
       <c r="E21" s="50" t="n">
-        <v>43543</v>
+        <v>43529</v>
       </c>
       <c r="F21" s="49" t="n">
         <f aca="false">E21-D21</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G21" s="49" t="s">
         <v>59</v>
@@ -3979,14 +3979,14 @@
         <v>58</v>
       </c>
       <c r="D22" s="50" t="n">
-        <v>43516</v>
+        <v>43529</v>
       </c>
       <c r="E22" s="50" t="n">
-        <v>43544</v>
+        <v>43531</v>
       </c>
       <c r="F22" s="49" t="n">
         <f aca="false">E22-D22</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G22" s="49" t="s">
         <v>59</v>
@@ -4021,14 +4021,14 @@
         <v>58</v>
       </c>
       <c r="D24" s="46" t="n">
-        <v>43503</v>
+        <v>43531</v>
       </c>
       <c r="E24" s="46" t="n">
-        <v>43562</v>
+        <v>43553</v>
       </c>
       <c r="F24" s="45" t="n">
         <f aca="false">E24-D24</f>
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>59</v>
@@ -4045,14 +4045,14 @@
         <v>58</v>
       </c>
       <c r="D25" s="50" t="n">
-        <v>43531</v>
+        <v>43533</v>
       </c>
       <c r="E25" s="50" t="n">
-        <v>43563</v>
+        <v>43535</v>
       </c>
       <c r="F25" s="49" t="n">
         <f aca="false">E25-D25</f>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>59</v>
@@ -4069,14 +4069,14 @@
         <v>58</v>
       </c>
       <c r="D26" s="50" t="n">
-        <v>43532</v>
+        <v>43535</v>
       </c>
       <c r="E26" s="50" t="n">
-        <v>43563</v>
+        <v>43537</v>
       </c>
       <c r="F26" s="49" t="n">
         <f aca="false">E26-D26</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G26" s="49" t="s">
         <v>59</v>
@@ -4093,14 +4093,14 @@
         <v>58</v>
       </c>
       <c r="D27" s="50" t="n">
-        <v>43533</v>
+        <v>43537</v>
       </c>
       <c r="E27" s="50" t="n">
-        <v>43564</v>
+        <v>43539</v>
       </c>
       <c r="F27" s="49" t="n">
         <f aca="false">E27-D27</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>59</v>
@@ -4117,14 +4117,14 @@
         <v>58</v>
       </c>
       <c r="D28" s="50" t="n">
-        <v>43534</v>
+        <v>43539</v>
       </c>
       <c r="E28" s="50" t="n">
-        <v>43565</v>
+        <v>43541</v>
       </c>
       <c r="F28" s="49" t="n">
         <f aca="false">E28-D28</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G28" s="49" t="s">
         <v>59</v>
@@ -4141,14 +4141,14 @@
         <v>58</v>
       </c>
       <c r="D29" s="50" t="n">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="E29" s="50" t="n">
-        <v>43566</v>
+        <v>43543</v>
       </c>
       <c r="F29" s="49" t="n">
         <f aca="false">E29-D29</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G29" s="49" t="s">
         <v>59</v>
@@ -4165,14 +4165,14 @@
         <v>58</v>
       </c>
       <c r="D30" s="50" t="n">
-        <v>43536</v>
+        <v>43543</v>
       </c>
       <c r="E30" s="50" t="n">
-        <v>43567</v>
+        <v>43545</v>
       </c>
       <c r="F30" s="49" t="n">
         <f aca="false">E30-D30</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G30" s="49" t="s">
         <v>59</v>
@@ -4189,14 +4189,14 @@
         <v>58</v>
       </c>
       <c r="D31" s="50" t="n">
-        <v>43537</v>
+        <v>43545</v>
       </c>
       <c r="E31" s="50" t="n">
-        <v>43568</v>
+        <v>43547</v>
       </c>
       <c r="F31" s="49" t="n">
         <f aca="false">E31-D31</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G31" s="49" t="s">
         <v>59</v>
@@ -4213,14 +4213,14 @@
         <v>58</v>
       </c>
       <c r="D32" s="50" t="n">
-        <v>43538</v>
+        <v>43547</v>
       </c>
       <c r="E32" s="50" t="n">
-        <v>43569</v>
+        <v>43549</v>
       </c>
       <c r="F32" s="49" t="n">
         <f aca="false">E32-D32</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G32" s="49" t="s">
         <v>59</v>
@@ -4237,14 +4237,14 @@
         <v>58</v>
       </c>
       <c r="D33" s="50" t="n">
-        <v>43539</v>
+        <v>43549</v>
       </c>
       <c r="E33" s="50" t="n">
-        <v>43570</v>
+        <v>43551</v>
       </c>
       <c r="F33" s="49" t="n">
         <f aca="false">E33-D33</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G33" s="49" t="s">
         <v>59</v>
@@ -4261,14 +4261,14 @@
         <v>58</v>
       </c>
       <c r="D34" s="50" t="n">
-        <v>43540</v>
+        <v>43551</v>
       </c>
       <c r="E34" s="50" t="n">
-        <v>43571</v>
+        <v>43553</v>
       </c>
       <c r="F34" s="49" t="n">
         <f aca="false">E34-D34</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G34" s="49" t="s">
         <v>59</v>

--- a/docs/phase_ii/project.xlsx
+++ b/docs/phase_ii/project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
   <si>
     <t xml:space="preserve">1. Agile User Story Template</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t xml:space="preserve">Create deployer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create post installation script, installer</t>
   </si>
   <si>
     <t xml:space="preserve">5. Database &amp; UI Design</t>
@@ -3114,8 +3117,8 @@
   </sheetPr>
   <dimension ref="A1:AA65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4292,14 +4295,14 @@
         <v>58</v>
       </c>
       <c r="D36" s="46" t="n">
-        <v>43562</v>
+        <v>43553</v>
       </c>
       <c r="E36" s="46" t="n">
         <v>43592</v>
       </c>
       <c r="F36" s="45" t="n">
         <f aca="false">E36-D36</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>59</v>
@@ -4316,14 +4319,14 @@
         <v>58</v>
       </c>
       <c r="D37" s="50" t="n">
-        <v>43562</v>
+        <v>43553</v>
       </c>
       <c r="E37" s="50" t="n">
-        <v>43592</v>
+        <v>43565</v>
       </c>
       <c r="F37" s="49" t="n">
         <f aca="false">E37-D37</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G37" s="49" t="s">
         <v>59</v>
@@ -4340,14 +4343,14 @@
         <v>58</v>
       </c>
       <c r="D38" s="50" t="n">
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="E38" s="50" t="n">
-        <v>43593</v>
+        <v>43570</v>
       </c>
       <c r="F38" s="49" t="n">
         <f aca="false">E38-D38</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G38" s="49" t="s">
         <v>59</v>
@@ -4364,14 +4367,14 @@
         <v>58</v>
       </c>
       <c r="D39" s="50" t="n">
-        <v>43564</v>
+        <v>43570</v>
       </c>
       <c r="E39" s="50" t="n">
-        <v>43594</v>
+        <v>43574</v>
       </c>
       <c r="F39" s="49" t="n">
         <f aca="false">E39-D39</f>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G39" s="49" t="s">
         <v>59</v>
@@ -4388,14 +4391,14 @@
         <v>58</v>
       </c>
       <c r="D40" s="50" t="n">
-        <v>43565</v>
+        <v>43574</v>
       </c>
       <c r="E40" s="50" t="n">
-        <v>43595</v>
+        <v>43584</v>
       </c>
       <c r="F40" s="49" t="n">
         <f aca="false">E40-D40</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G40" s="49" t="s">
         <v>59</v>
@@ -4412,14 +4415,14 @@
         <v>58</v>
       </c>
       <c r="D41" s="50" t="n">
-        <v>43566</v>
+        <v>43584</v>
       </c>
       <c r="E41" s="50" t="n">
-        <v>43596</v>
+        <v>43591</v>
       </c>
       <c r="F41" s="49" t="n">
         <f aca="false">E41-D41</f>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G41" s="49" t="s">
         <v>59</v>
@@ -4430,20 +4433,20 @@
         <v>11</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="50" t="n">
-        <v>43566</v>
+        <v>43591</v>
       </c>
       <c r="E42" s="50" t="n">
-        <v>43596</v>
+        <v>43601</v>
       </c>
       <c r="F42" s="49" t="n">
         <f aca="false">E42-D42</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G42" s="49" t="s">
         <v>59</v>
@@ -4486,7 +4489,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -4499,7 +4502,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -4512,17 +4515,17 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -4534,7 +4537,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -4605,7 +4608,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -4667,7 +4670,7 @@
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
@@ -4723,22 +4726,22 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="65"/>
       <c r="B6" s="66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4769,16 +4772,16 @@
         <v>42435</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -4809,16 +4812,16 @@
         <v>42441</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -4849,16 +4852,16 @@
         <v>42449</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -4889,13 +4892,13 @@
         <v>42461</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G10" s="70"/>
       <c r="H10" s="15"/>
@@ -5290,7 +5293,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>

--- a/docs/phase_ii/project.xlsx
+++ b/docs/phase_ii/project.xlsx
@@ -3118,7 +3118,7 @@
   <dimension ref="A1:AA65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
